--- a/paper_list.xlsx
+++ b/paper_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leni/Desktop/DS-Survey/Papers/easyread/datastorysurvey.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB27187-B95B-C446-ACA9-D11F289B7CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4465F885-325E-2241-913D-2B2CAC9C82BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7977,7 +7977,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D319" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="M313" workbookViewId="0">
       <selection activeCell="P328" sqref="P328"/>
     </sheetView>
   </sheetViews>
@@ -22232,7 +22232,7 @@
         <v>1304</v>
       </c>
       <c r="F274">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G274" t="s">
         <v>1368</v>
@@ -22262,7 +22262,7 @@
         <v>1844</v>
       </c>
       <c r="P274">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q274" t="s">
         <v>2502</v>
@@ -22332,7 +22332,7 @@
         <v>1306</v>
       </c>
       <c r="F276">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G276" t="s">
         <v>1368</v>
@@ -22359,7 +22359,7 @@
         <v>1846</v>
       </c>
       <c r="P276">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q276" t="s">
         <v>2469</v>
@@ -22382,7 +22382,7 @@
         <v>1307</v>
       </c>
       <c r="F277">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G277" t="s">
         <v>1368</v>
@@ -22412,7 +22412,7 @@
         <v>1847</v>
       </c>
       <c r="P277">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q277" t="s">
         <v>2466</v>
@@ -22435,7 +22435,7 @@
         <v>1308</v>
       </c>
       <c r="F278">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G278" t="s">
         <v>1368</v>
@@ -22465,7 +22465,7 @@
         <v>1848</v>
       </c>
       <c r="P278">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q278" t="s">
         <v>2466</v>
@@ -22488,7 +22488,7 @@
         <v>1309</v>
       </c>
       <c r="F279">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G279" t="s">
         <v>1368</v>
@@ -22512,7 +22512,7 @@
         <v>2462</v>
       </c>
       <c r="P279">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q279" t="s">
         <v>2504</v>
@@ -22535,7 +22535,7 @@
         <v>1310</v>
       </c>
       <c r="F280">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G280" t="s">
         <v>1368</v>
@@ -22565,7 +22565,7 @@
         <v>1850</v>
       </c>
       <c r="P280">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q280" t="s">
         <v>2477</v>
@@ -22588,7 +22588,7 @@
         <v>1311</v>
       </c>
       <c r="F281">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G281" t="s">
         <v>1368</v>
@@ -22612,7 +22612,7 @@
         <v>2463</v>
       </c>
       <c r="P281">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q281" t="s">
         <v>2505</v>
@@ -22635,7 +22635,7 @@
         <v>1312</v>
       </c>
       <c r="F282">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G282" t="s">
         <v>1368</v>
@@ -22662,7 +22662,7 @@
         <v>1852</v>
       </c>
       <c r="P282">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q282" t="s">
         <v>2466</v>
@@ -22685,7 +22685,7 @@
         <v>1313</v>
       </c>
       <c r="F283">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G283" t="s">
         <v>1368</v>
@@ -22715,7 +22715,7 @@
         <v>1853</v>
       </c>
       <c r="P283">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q283" t="s">
         <v>2491</v>
@@ -22738,7 +22738,7 @@
         <v>1314</v>
       </c>
       <c r="F284">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G284" t="s">
         <v>1368</v>
@@ -22765,7 +22765,7 @@
         <v>1854</v>
       </c>
       <c r="P284">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q284" t="s">
         <v>2506</v>
@@ -22788,7 +22788,7 @@
         <v>1315</v>
       </c>
       <c r="F285">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G285" t="s">
         <v>1368</v>
@@ -22818,7 +22818,7 @@
         <v>1855</v>
       </c>
       <c r="P285">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q285" t="s">
         <v>2475</v>
@@ -22841,7 +22841,7 @@
         <v>1316</v>
       </c>
       <c r="F286">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G286" t="s">
         <v>1368</v>
@@ -22871,7 +22871,7 @@
         <v>1856</v>
       </c>
       <c r="P286">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q286" t="s">
         <v>2507</v>
@@ -22894,7 +22894,7 @@
         <v>1317</v>
       </c>
       <c r="F287">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G287" t="s">
         <v>1368</v>
@@ -22921,7 +22921,7 @@
         <v>1857</v>
       </c>
       <c r="P287">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q287" t="s">
         <v>2508</v>
@@ -22997,7 +22997,7 @@
         <v>1319</v>
       </c>
       <c r="F289">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G289" t="s">
         <v>1368</v>
@@ -23024,7 +23024,7 @@
         <v>1859</v>
       </c>
       <c r="P289">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q289" t="s">
         <v>2497</v>
@@ -23047,7 +23047,7 @@
         <v>1320</v>
       </c>
       <c r="F290">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G290" t="s">
         <v>1368</v>
@@ -23077,7 +23077,7 @@
         <v>1860</v>
       </c>
       <c r="P290">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q290" t="s">
         <v>2510</v>
@@ -23100,7 +23100,7 @@
         <v>1321</v>
       </c>
       <c r="F291">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G291" t="s">
         <v>1368</v>
@@ -23130,7 +23130,7 @@
         <v>1861</v>
       </c>
       <c r="P291">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q291" t="s">
         <v>2491</v>
@@ -23153,7 +23153,7 @@
         <v>1322</v>
       </c>
       <c r="F292">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G292" t="s">
         <v>1368</v>
@@ -23180,7 +23180,7 @@
         <v>1862</v>
       </c>
       <c r="P292">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q292" t="s">
         <v>2511</v>
@@ -23203,7 +23203,7 @@
         <v>1323</v>
       </c>
       <c r="F293">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G293" t="s">
         <v>1368</v>
@@ -23230,7 +23230,7 @@
         <v>1863</v>
       </c>
       <c r="P293">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q293" t="s">
         <v>2512</v>
@@ -23253,7 +23253,7 @@
         <v>1324</v>
       </c>
       <c r="F294">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G294" t="s">
         <v>1368</v>
@@ -23283,7 +23283,7 @@
         <v>1864</v>
       </c>
       <c r="P294">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q294" t="s">
         <v>2466</v>
@@ -23306,7 +23306,7 @@
         <v>1325</v>
       </c>
       <c r="F295">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G295" t="s">
         <v>1368</v>
@@ -23336,7 +23336,7 @@
         <v>1865</v>
       </c>
       <c r="P295">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q295" t="s">
         <v>2502</v>
@@ -23359,7 +23359,7 @@
         <v>1326</v>
       </c>
       <c r="F296">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G296" t="s">
         <v>1368</v>
@@ -23389,7 +23389,7 @@
         <v>1866</v>
       </c>
       <c r="P296">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q296" t="s">
         <v>2512</v>
@@ -23412,7 +23412,7 @@
         <v>1327</v>
       </c>
       <c r="F297">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G297" t="s">
         <v>1368</v>
@@ -23439,7 +23439,7 @@
         <v>1867</v>
       </c>
       <c r="P297">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q297" t="s">
         <v>2474</v>
@@ -23462,7 +23462,7 @@
         <v>1328</v>
       </c>
       <c r="F298">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G298" t="s">
         <v>1368</v>
@@ -23492,7 +23492,7 @@
         <v>1868</v>
       </c>
       <c r="P298">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q298" t="s">
         <v>2472</v>
@@ -23515,7 +23515,7 @@
         <v>1329</v>
       </c>
       <c r="F299">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G299" t="s">
         <v>1368</v>
@@ -23545,7 +23545,7 @@
         <v>1869</v>
       </c>
       <c r="P299">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q299" t="s">
         <v>2513</v>
@@ -23568,7 +23568,7 @@
         <v>1330</v>
       </c>
       <c r="F300">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G300" t="s">
         <v>1368</v>
@@ -23598,7 +23598,7 @@
         <v>1870</v>
       </c>
       <c r="P300">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q300" t="s">
         <v>2514</v>
@@ -23674,7 +23674,7 @@
         <v>1332</v>
       </c>
       <c r="F302">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G302" t="s">
         <v>1368</v>
@@ -23701,7 +23701,7 @@
         <v>1872</v>
       </c>
       <c r="P302">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q302" t="s">
         <v>2466</v>
@@ -23724,7 +23724,7 @@
         <v>1333</v>
       </c>
       <c r="F303">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G303" t="s">
         <v>1368</v>
@@ -23748,7 +23748,7 @@
         <v>1873</v>
       </c>
       <c r="P303">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q303" t="s">
         <v>2491</v>
@@ -23821,7 +23821,7 @@
         <v>1335</v>
       </c>
       <c r="F305">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G305" t="s">
         <v>1368</v>
@@ -23851,7 +23851,7 @@
         <v>1875</v>
       </c>
       <c r="P305">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q305" t="s">
         <v>2477</v>

--- a/paper_list.xlsx
+++ b/paper_list.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11116"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leni/Desktop/DS-Survey/Papers/easyread/datastorysurvey.github.io/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4465F885-325E-2241-913D-2B2CAC9C82BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -7593,12 +7587,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -7606,7 +7600,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -7616,13 +7610,6 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -7672,26 +7659,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -7729,7 +7708,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -7763,7 +7742,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -7798,10 +7776,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7974,14 +7951,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M313" workbookViewId="0">
-      <selection activeCell="P328" sqref="P328"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
@@ -8036,7 +8011,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -8089,7 +8064,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -8142,7 +8117,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15">
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -8195,7 +8170,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15">
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -8248,7 +8223,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15">
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -8301,7 +8276,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15">
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -8354,7 +8329,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="15">
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -8407,7 +8382,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15">
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -8460,7 +8435,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15">
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -8513,7 +8488,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="15">
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -8566,7 +8541,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="15">
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -8619,7 +8594,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="15">
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -8672,7 +8647,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="15">
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -8725,7 +8700,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="15">
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -8778,7 +8753,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="15">
+    <row r="16" spans="1:17">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -8831,7 +8806,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="15">
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -8884,7 +8859,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="15">
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -8937,7 +8912,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="15">
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -8990,7 +8965,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="15">
+    <row r="20" spans="1:17">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -9043,7 +9018,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="15">
+    <row r="21" spans="1:17">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -9096,7 +9071,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="15">
+    <row r="22" spans="1:17">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -9149,7 +9124,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="15">
+    <row r="23" spans="1:17">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -9202,7 +9177,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="15">
+    <row r="24" spans="1:17">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -9255,7 +9230,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="15">
+    <row r="25" spans="1:17">
       <c r="A25" t="s">
         <v>40</v>
       </c>
@@ -9308,7 +9283,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="15">
+    <row r="26" spans="1:17">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -9361,7 +9336,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="15">
+    <row r="27" spans="1:17">
       <c r="A27" t="s">
         <v>42</v>
       </c>
@@ -9414,7 +9389,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="15">
+    <row r="28" spans="1:17">
       <c r="A28" t="s">
         <v>43</v>
       </c>
@@ -9464,7 +9439,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="15">
+    <row r="29" spans="1:17">
       <c r="A29" t="s">
         <v>44</v>
       </c>
@@ -9517,7 +9492,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="15">
+    <row r="30" spans="1:17">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -9570,7 +9545,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="15">
+    <row r="31" spans="1:17">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -9623,7 +9598,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="15">
+    <row r="32" spans="1:17">
       <c r="A32" t="s">
         <v>47</v>
       </c>
@@ -9676,7 +9651,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="15">
+    <row r="33" spans="1:17">
       <c r="A33" t="s">
         <v>48</v>
       </c>
@@ -9729,7 +9704,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="15">
+    <row r="34" spans="1:17">
       <c r="A34" t="s">
         <v>49</v>
       </c>
@@ -9782,7 +9757,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="15">
+    <row r="35" spans="1:17">
       <c r="A35" t="s">
         <v>50</v>
       </c>
@@ -9835,7 +9810,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="15">
+    <row r="36" spans="1:17">
       <c r="A36" t="s">
         <v>51</v>
       </c>
@@ -9888,7 +9863,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="15">
+    <row r="37" spans="1:17">
       <c r="A37" t="s">
         <v>52</v>
       </c>
@@ -9941,7 +9916,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="15">
+    <row r="38" spans="1:17">
       <c r="A38" t="s">
         <v>53</v>
       </c>
@@ -9994,7 +9969,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="15">
+    <row r="39" spans="1:17">
       <c r="A39" t="s">
         <v>54</v>
       </c>
@@ -10047,7 +10022,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="15">
+    <row r="40" spans="1:17">
       <c r="A40" t="s">
         <v>55</v>
       </c>
@@ -10100,7 +10075,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="15">
+    <row r="41" spans="1:17">
       <c r="A41" t="s">
         <v>56</v>
       </c>
@@ -10153,7 +10128,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="15">
+    <row r="42" spans="1:17">
       <c r="A42" t="s">
         <v>57</v>
       </c>
@@ -10206,7 +10181,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="15">
+    <row r="43" spans="1:17">
       <c r="A43" t="s">
         <v>58</v>
       </c>
@@ -10259,7 +10234,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="15">
+    <row r="44" spans="1:17">
       <c r="A44" t="s">
         <v>59</v>
       </c>
@@ -10312,7 +10287,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="15">
+    <row r="45" spans="1:17">
       <c r="A45" t="s">
         <v>60</v>
       </c>
@@ -10365,7 +10340,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="15">
+    <row r="46" spans="1:17">
       <c r="A46" t="s">
         <v>61</v>
       </c>
@@ -10418,7 +10393,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="15">
+    <row r="47" spans="1:17">
       <c r="A47" t="s">
         <v>62</v>
       </c>
@@ -10471,7 +10446,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="15">
+    <row r="48" spans="1:17">
       <c r="A48" t="s">
         <v>63</v>
       </c>
@@ -10524,7 +10499,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="15">
+    <row r="49" spans="1:17">
       <c r="A49" t="s">
         <v>64</v>
       </c>
@@ -10577,7 +10552,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="15">
+    <row r="50" spans="1:17">
       <c r="A50" t="s">
         <v>65</v>
       </c>
@@ -10630,7 +10605,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="15">
+    <row r="51" spans="1:17">
       <c r="A51" t="s">
         <v>66</v>
       </c>
@@ -10683,7 +10658,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="52" spans="1:17" ht="15">
+    <row r="52" spans="1:17">
       <c r="A52" t="s">
         <v>67</v>
       </c>
@@ -10736,7 +10711,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="15">
+    <row r="53" spans="1:17">
       <c r="A53" t="s">
         <v>68</v>
       </c>
@@ -10789,7 +10764,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="15">
+    <row r="54" spans="1:17">
       <c r="A54" t="s">
         <v>69</v>
       </c>
@@ -10842,7 +10817,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="55" spans="1:17" ht="15">
+    <row r="55" spans="1:17">
       <c r="A55" t="s">
         <v>70</v>
       </c>
@@ -10895,7 +10870,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="56" spans="1:17" ht="15">
+    <row r="56" spans="1:17">
       <c r="A56" t="s">
         <v>71</v>
       </c>
@@ -10948,7 +10923,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="57" spans="1:17" ht="15">
+    <row r="57" spans="1:17">
       <c r="A57" t="s">
         <v>72</v>
       </c>
@@ -11001,7 +10976,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="15">
+    <row r="58" spans="1:17">
       <c r="A58" t="s">
         <v>73</v>
       </c>
@@ -11054,7 +11029,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="15">
+    <row r="59" spans="1:17">
       <c r="A59" t="s">
         <v>74</v>
       </c>
@@ -11107,7 +11082,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="60" spans="1:17" ht="15">
+    <row r="60" spans="1:17">
       <c r="A60" t="s">
         <v>75</v>
       </c>
@@ -11160,7 +11135,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="61" spans="1:17" ht="15">
+    <row r="61" spans="1:17">
       <c r="A61" t="s">
         <v>76</v>
       </c>
@@ -11213,7 +11188,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="62" spans="1:17" ht="15">
+    <row r="62" spans="1:17">
       <c r="A62" t="s">
         <v>77</v>
       </c>
@@ -11266,7 +11241,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="63" spans="1:17" ht="15">
+    <row r="63" spans="1:17">
       <c r="A63" t="s">
         <v>78</v>
       </c>
@@ -11319,7 +11294,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="64" spans="1:17" ht="15">
+    <row r="64" spans="1:17">
       <c r="A64" t="s">
         <v>79</v>
       </c>
@@ -11372,7 +11347,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="65" spans="1:17" ht="15">
+    <row r="65" spans="1:17">
       <c r="A65" t="s">
         <v>80</v>
       </c>
@@ -11425,7 +11400,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="66" spans="1:17" ht="15">
+    <row r="66" spans="1:17">
       <c r="A66" t="s">
         <v>81</v>
       </c>
@@ -11478,7 +11453,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="67" spans="1:17" ht="15">
+    <row r="67" spans="1:17">
       <c r="A67" t="s">
         <v>82</v>
       </c>
@@ -11531,7 +11506,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="68" spans="1:17" ht="15">
+    <row r="68" spans="1:17">
       <c r="A68" t="s">
         <v>83</v>
       </c>
@@ -11584,7 +11559,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="69" spans="1:17" ht="15">
+    <row r="69" spans="1:17">
       <c r="A69" t="s">
         <v>84</v>
       </c>
@@ -11637,7 +11612,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="70" spans="1:17" ht="15">
+    <row r="70" spans="1:17">
       <c r="A70" t="s">
         <v>85</v>
       </c>
@@ -11690,7 +11665,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="71" spans="1:17" ht="15">
+    <row r="71" spans="1:17">
       <c r="A71" t="s">
         <v>86</v>
       </c>
@@ -11743,7 +11718,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="72" spans="1:17" ht="15">
+    <row r="72" spans="1:17">
       <c r="A72" t="s">
         <v>87</v>
       </c>
@@ -11796,7 +11771,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="73" spans="1:17" ht="15">
+    <row r="73" spans="1:17">
       <c r="A73" t="s">
         <v>88</v>
       </c>
@@ -11849,7 +11824,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="74" spans="1:17" ht="15">
+    <row r="74" spans="1:17">
       <c r="A74" t="s">
         <v>89</v>
       </c>
@@ -11902,7 +11877,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="75" spans="1:17" ht="15">
+    <row r="75" spans="1:17">
       <c r="A75" t="s">
         <v>90</v>
       </c>
@@ -11952,7 +11927,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="76" spans="1:17" ht="15">
+    <row r="76" spans="1:17">
       <c r="A76" t="s">
         <v>91</v>
       </c>
@@ -12005,7 +11980,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="77" spans="1:17" ht="15">
+    <row r="77" spans="1:17">
       <c r="A77" t="s">
         <v>92</v>
       </c>
@@ -12058,7 +12033,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="78" spans="1:17" ht="15">
+    <row r="78" spans="1:17">
       <c r="A78" t="s">
         <v>93</v>
       </c>
@@ -12111,7 +12086,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="79" spans="1:17" ht="15">
+    <row r="79" spans="1:17">
       <c r="A79" t="s">
         <v>94</v>
       </c>
@@ -12164,7 +12139,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="80" spans="1:17" ht="15">
+    <row r="80" spans="1:17">
       <c r="A80" t="s">
         <v>95</v>
       </c>
@@ -12217,7 +12192,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="81" spans="1:17" ht="15">
+    <row r="81" spans="1:17">
       <c r="A81" t="s">
         <v>96</v>
       </c>
@@ -12270,7 +12245,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="82" spans="1:17" ht="15">
+    <row r="82" spans="1:17">
       <c r="A82" t="s">
         <v>97</v>
       </c>
@@ -12323,7 +12298,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="83" spans="1:17" ht="15">
+    <row r="83" spans="1:17">
       <c r="A83" t="s">
         <v>98</v>
       </c>
@@ -12376,7 +12351,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="84" spans="1:17" ht="15">
+    <row r="84" spans="1:17">
       <c r="A84" t="s">
         <v>99</v>
       </c>
@@ -12429,7 +12404,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="85" spans="1:17" ht="15">
+    <row r="85" spans="1:17">
       <c r="A85" t="s">
         <v>100</v>
       </c>
@@ -12482,7 +12457,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="86" spans="1:17" ht="15">
+    <row r="86" spans="1:17">
       <c r="A86" t="s">
         <v>101</v>
       </c>
@@ -12535,7 +12510,7 @@
         <v>2467</v>
       </c>
     </row>
-    <row r="87" spans="1:17" ht="15">
+    <row r="87" spans="1:17">
       <c r="A87" t="s">
         <v>102</v>
       </c>
@@ -12588,7 +12563,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="88" spans="1:17" ht="15">
+    <row r="88" spans="1:17">
       <c r="A88" t="s">
         <v>103</v>
       </c>
@@ -12641,7 +12616,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="89" spans="1:17" ht="15">
+    <row r="89" spans="1:17">
       <c r="A89" t="s">
         <v>104</v>
       </c>
@@ -12694,7 +12669,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="90" spans="1:17" ht="15">
+    <row r="90" spans="1:17">
       <c r="A90" t="s">
         <v>105</v>
       </c>
@@ -12747,7 +12722,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="91" spans="1:17" ht="15">
+    <row r="91" spans="1:17">
       <c r="A91" t="s">
         <v>106</v>
       </c>
@@ -12800,7 +12775,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="92" spans="1:17" ht="15">
+    <row r="92" spans="1:17">
       <c r="A92" t="s">
         <v>107</v>
       </c>
@@ -12853,7 +12828,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="93" spans="1:17" ht="15">
+    <row r="93" spans="1:17">
       <c r="A93" t="s">
         <v>108</v>
       </c>
@@ -12906,7 +12881,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="94" spans="1:17" ht="15">
+    <row r="94" spans="1:17">
       <c r="A94" t="s">
         <v>109</v>
       </c>
@@ -12959,7 +12934,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="95" spans="1:17" ht="15">
+    <row r="95" spans="1:17">
       <c r="A95" t="s">
         <v>110</v>
       </c>
@@ -13012,7 +12987,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="96" spans="1:17" ht="15">
+    <row r="96" spans="1:17">
       <c r="A96" t="s">
         <v>111</v>
       </c>
@@ -13065,7 +13040,7 @@
         <v>2468</v>
       </c>
     </row>
-    <row r="97" spans="1:17" ht="15">
+    <row r="97" spans="1:17">
       <c r="A97" t="s">
         <v>112</v>
       </c>
@@ -13118,7 +13093,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="98" spans="1:17" ht="15">
+    <row r="98" spans="1:17">
       <c r="A98" t="s">
         <v>113</v>
       </c>
@@ -13171,7 +13146,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="99" spans="1:17" ht="15">
+    <row r="99" spans="1:17">
       <c r="A99" t="s">
         <v>114</v>
       </c>
@@ -13224,7 +13199,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="100" spans="1:17" ht="15">
+    <row r="100" spans="1:17">
       <c r="A100" t="s">
         <v>115</v>
       </c>
@@ -13277,7 +13252,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="101" spans="1:17" ht="15">
+    <row r="101" spans="1:17">
       <c r="A101" t="s">
         <v>116</v>
       </c>
@@ -13327,7 +13302,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="102" spans="1:17" ht="15">
+    <row r="102" spans="1:17">
       <c r="A102" t="s">
         <v>117</v>
       </c>
@@ -13380,7 +13355,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="103" spans="1:17" ht="15">
+    <row r="103" spans="1:17">
       <c r="A103" t="s">
         <v>118</v>
       </c>
@@ -13433,7 +13408,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="104" spans="1:17" ht="15">
+    <row r="104" spans="1:17">
       <c r="A104" t="s">
         <v>119</v>
       </c>
@@ -13486,7 +13461,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="105" spans="1:17" ht="15">
+    <row r="105" spans="1:17">
       <c r="A105" t="s">
         <v>120</v>
       </c>
@@ -13539,7 +13514,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="106" spans="1:17" ht="15">
+    <row r="106" spans="1:17">
       <c r="A106" t="s">
         <v>121</v>
       </c>
@@ -13589,7 +13564,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="107" spans="1:17" ht="15">
+    <row r="107" spans="1:17">
       <c r="A107" t="s">
         <v>122</v>
       </c>
@@ -13642,7 +13617,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="108" spans="1:17" ht="15">
+    <row r="108" spans="1:17">
       <c r="A108" t="s">
         <v>123</v>
       </c>
@@ -13695,7 +13670,7 @@
         <v>2468</v>
       </c>
     </row>
-    <row r="109" spans="1:17" ht="15">
+    <row r="109" spans="1:17">
       <c r="A109" t="s">
         <v>124</v>
       </c>
@@ -13748,7 +13723,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="110" spans="1:17" ht="15">
+    <row r="110" spans="1:17">
       <c r="A110" t="s">
         <v>125</v>
       </c>
@@ -13801,7 +13776,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="111" spans="1:17" ht="15">
+    <row r="111" spans="1:17">
       <c r="A111" t="s">
         <v>126</v>
       </c>
@@ -13854,7 +13829,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="112" spans="1:17" ht="15">
+    <row r="112" spans="1:17">
       <c r="A112" t="s">
         <v>127</v>
       </c>
@@ -13907,7 +13882,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="113" spans="1:17" ht="15">
+    <row r="113" spans="1:17">
       <c r="A113" t="s">
         <v>128</v>
       </c>
@@ -13960,7 +13935,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="114" spans="1:17" ht="15">
+    <row r="114" spans="1:17">
       <c r="A114" t="s">
         <v>129</v>
       </c>
@@ -14013,7 +13988,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="115" spans="1:17" ht="15">
+    <row r="115" spans="1:17">
       <c r="A115" t="s">
         <v>130</v>
       </c>
@@ -14066,7 +14041,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="116" spans="1:17" ht="15">
+    <row r="116" spans="1:17">
       <c r="A116" t="s">
         <v>131</v>
       </c>
@@ -14119,7 +14094,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="117" spans="1:17" ht="15">
+    <row r="117" spans="1:17">
       <c r="A117" t="s">
         <v>132</v>
       </c>
@@ -14172,7 +14147,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="118" spans="1:17" ht="15">
+    <row r="118" spans="1:17">
       <c r="A118" t="s">
         <v>133</v>
       </c>
@@ -14225,7 +14200,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="119" spans="1:17" ht="15">
+    <row r="119" spans="1:17">
       <c r="A119" t="s">
         <v>134</v>
       </c>
@@ -14278,7 +14253,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="120" spans="1:17" ht="15">
+    <row r="120" spans="1:17">
       <c r="A120" t="s">
         <v>135</v>
       </c>
@@ -14331,7 +14306,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="121" spans="1:17" ht="15">
+    <row r="121" spans="1:17">
       <c r="A121" t="s">
         <v>136</v>
       </c>
@@ -14428,7 +14403,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="123" spans="1:17" ht="15">
+    <row r="123" spans="1:17">
       <c r="A123" t="s">
         <v>138</v>
       </c>
@@ -14481,7 +14456,7 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="124" spans="1:17" ht="15">
+    <row r="124" spans="1:17">
       <c r="A124" t="s">
         <v>139</v>
       </c>
@@ -14534,7 +14509,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="125" spans="1:17" ht="15">
+    <row r="125" spans="1:17">
       <c r="A125" t="s">
         <v>140</v>
       </c>
@@ -14584,7 +14559,7 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="126" spans="1:17" ht="15">
+    <row r="126" spans="1:17">
       <c r="A126" t="s">
         <v>141</v>
       </c>
@@ -14637,7 +14612,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="127" spans="1:17" ht="15">
+    <row r="127" spans="1:17">
       <c r="A127" t="s">
         <v>142</v>
       </c>
@@ -14690,7 +14665,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="128" spans="1:17" ht="15">
+    <row r="128" spans="1:17">
       <c r="A128" t="s">
         <v>143</v>
       </c>
@@ -14743,7 +14718,7 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="129" spans="1:17" ht="15">
+    <row r="129" spans="1:17">
       <c r="A129" t="s">
         <v>144</v>
       </c>
@@ -14796,7 +14771,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="130" spans="1:17" ht="15">
+    <row r="130" spans="1:17">
       <c r="A130" t="s">
         <v>145</v>
       </c>
@@ -14849,7 +14824,7 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="131" spans="1:17" ht="15">
+    <row r="131" spans="1:17">
       <c r="A131" t="s">
         <v>146</v>
       </c>
@@ -14902,7 +14877,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="132" spans="1:17" ht="15">
+    <row r="132" spans="1:17">
       <c r="A132" t="s">
         <v>147</v>
       </c>
@@ -14955,7 +14930,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="133" spans="1:17" ht="15">
+    <row r="133" spans="1:17">
       <c r="A133" t="s">
         <v>148</v>
       </c>
@@ -15008,7 +14983,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="134" spans="1:17" ht="15">
+    <row r="134" spans="1:17">
       <c r="A134" t="s">
         <v>149</v>
       </c>
@@ -15061,7 +15036,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="135" spans="1:17" ht="15">
+    <row r="135" spans="1:17">
       <c r="A135" t="s">
         <v>150</v>
       </c>
@@ -15114,7 +15089,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="136" spans="1:17" ht="15">
+    <row r="136" spans="1:17">
       <c r="A136" t="s">
         <v>151</v>
       </c>
@@ -15167,7 +15142,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="137" spans="1:17" ht="15">
+    <row r="137" spans="1:17">
       <c r="A137" t="s">
         <v>152</v>
       </c>
@@ -15220,7 +15195,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="138" spans="1:17" ht="15">
+    <row r="138" spans="1:17">
       <c r="A138" t="s">
         <v>153</v>
       </c>
@@ -15273,7 +15248,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="139" spans="1:17" ht="15">
+    <row r="139" spans="1:17">
       <c r="A139" t="s">
         <v>154</v>
       </c>
@@ -15323,7 +15298,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="140" spans="1:17" ht="15">
+    <row r="140" spans="1:17">
       <c r="A140" t="s">
         <v>155</v>
       </c>
@@ -15376,7 +15351,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="141" spans="1:17" ht="15">
+    <row r="141" spans="1:17">
       <c r="A141" t="s">
         <v>156</v>
       </c>
@@ -15429,7 +15404,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="142" spans="1:17" ht="15">
+    <row r="142" spans="1:17">
       <c r="A142" t="s">
         <v>157</v>
       </c>
@@ -15482,7 +15457,7 @@
         <v>2470</v>
       </c>
     </row>
-    <row r="143" spans="1:17" ht="15">
+    <row r="143" spans="1:17">
       <c r="A143" t="s">
         <v>158</v>
       </c>
@@ -15535,7 +15510,7 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="144" spans="1:17" ht="15">
+    <row r="144" spans="1:17">
       <c r="A144" t="s">
         <v>159</v>
       </c>
@@ -15588,7 +15563,7 @@
         <v>2471</v>
       </c>
     </row>
-    <row r="145" spans="1:17" ht="15">
+    <row r="145" spans="1:17">
       <c r="A145" t="s">
         <v>160</v>
       </c>
@@ -15641,7 +15616,7 @@
         <v>2472</v>
       </c>
     </row>
-    <row r="146" spans="1:17" ht="15">
+    <row r="146" spans="1:17">
       <c r="A146" t="s">
         <v>161</v>
       </c>
@@ -15694,7 +15669,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="147" spans="1:17" ht="15">
+    <row r="147" spans="1:17">
       <c r="A147" t="s">
         <v>162</v>
       </c>
@@ -15747,7 +15722,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="148" spans="1:17" ht="15">
+    <row r="148" spans="1:17">
       <c r="A148" t="s">
         <v>163</v>
       </c>
@@ -15800,7 +15775,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="149" spans="1:17" ht="15">
+    <row r="149" spans="1:17">
       <c r="A149" t="s">
         <v>164</v>
       </c>
@@ -15853,7 +15828,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="150" spans="1:17" ht="15">
+    <row r="150" spans="1:17">
       <c r="A150" t="s">
         <v>165</v>
       </c>
@@ -15903,7 +15878,7 @@
         <v>2473</v>
       </c>
     </row>
-    <row r="151" spans="1:17" ht="15">
+    <row r="151" spans="1:17">
       <c r="A151" t="s">
         <v>166</v>
       </c>
@@ -15956,7 +15931,7 @@
         <v>2473</v>
       </c>
     </row>
-    <row r="152" spans="1:17" ht="15">
+    <row r="152" spans="1:17">
       <c r="A152" t="s">
         <v>167</v>
       </c>
@@ -16009,7 +15984,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="153" spans="1:17" ht="15">
+    <row r="153" spans="1:17">
       <c r="A153" t="s">
         <v>168</v>
       </c>
@@ -16062,7 +16037,7 @@
         <v>2468</v>
       </c>
     </row>
-    <row r="154" spans="1:17" ht="15">
+    <row r="154" spans="1:17">
       <c r="A154" t="s">
         <v>169</v>
       </c>
@@ -16115,7 +16090,7 @@
         <v>2474</v>
       </c>
     </row>
-    <row r="155" spans="1:17" ht="15">
+    <row r="155" spans="1:17">
       <c r="A155" t="s">
         <v>170</v>
       </c>
@@ -16168,7 +16143,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="156" spans="1:17" ht="15">
+    <row r="156" spans="1:17">
       <c r="A156" t="s">
         <v>171</v>
       </c>
@@ -16218,7 +16193,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="157" spans="1:17" ht="15">
+    <row r="157" spans="1:17">
       <c r="A157" t="s">
         <v>172</v>
       </c>
@@ -16271,7 +16246,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="158" spans="1:17" ht="15">
+    <row r="158" spans="1:17">
       <c r="A158" t="s">
         <v>173</v>
       </c>
@@ -16324,7 +16299,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="159" spans="1:17" ht="15">
+    <row r="159" spans="1:17">
       <c r="A159" t="s">
         <v>174</v>
       </c>
@@ -16377,7 +16352,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="160" spans="1:17" ht="15">
+    <row r="160" spans="1:17">
       <c r="A160" t="s">
         <v>175</v>
       </c>
@@ -16427,7 +16402,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="161" spans="1:17" ht="15">
+    <row r="161" spans="1:17">
       <c r="A161" t="s">
         <v>176</v>
       </c>
@@ -16477,7 +16452,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="162" spans="1:17" ht="15">
+    <row r="162" spans="1:17">
       <c r="A162" t="s">
         <v>177</v>
       </c>
@@ -16530,7 +16505,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="163" spans="1:17" ht="15">
+    <row r="163" spans="1:17">
       <c r="A163" t="s">
         <v>178</v>
       </c>
@@ -16583,7 +16558,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="164" spans="1:17" ht="15">
+    <row r="164" spans="1:17">
       <c r="A164" t="s">
         <v>179</v>
       </c>
@@ -16636,7 +16611,7 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="165" spans="1:17" ht="15">
+    <row r="165" spans="1:17">
       <c r="A165" t="s">
         <v>180</v>
       </c>
@@ -16689,7 +16664,7 @@
         <v>2477</v>
       </c>
     </row>
-    <row r="166" spans="1:17" ht="15">
+    <row r="166" spans="1:17">
       <c r="A166" t="s">
         <v>181</v>
       </c>
@@ -16742,7 +16717,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="167" spans="1:17" ht="15">
+    <row r="167" spans="1:17">
       <c r="A167" t="s">
         <v>182</v>
       </c>
@@ -16795,7 +16770,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="168" spans="1:17" ht="15">
+    <row r="168" spans="1:17">
       <c r="A168" t="s">
         <v>183</v>
       </c>
@@ -16848,7 +16823,7 @@
         <v>2478</v>
       </c>
     </row>
-    <row r="169" spans="1:17" ht="15">
+    <row r="169" spans="1:17">
       <c r="A169" t="s">
         <v>184</v>
       </c>
@@ -16901,7 +16876,7 @@
         <v>2479</v>
       </c>
     </row>
-    <row r="170" spans="1:17" ht="15">
+    <row r="170" spans="1:17">
       <c r="A170" t="s">
         <v>185</v>
       </c>
@@ -17042,7 +17017,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="173" spans="1:17" ht="15">
+    <row r="173" spans="1:17">
       <c r="A173" t="s">
         <v>188</v>
       </c>
@@ -17095,7 +17070,7 @@
         <v>2481</v>
       </c>
     </row>
-    <row r="174" spans="1:17" ht="15">
+    <row r="174" spans="1:17">
       <c r="A174" t="s">
         <v>189</v>
       </c>
@@ -17148,7 +17123,7 @@
         <v>2482</v>
       </c>
     </row>
-    <row r="175" spans="1:17" ht="15">
+    <row r="175" spans="1:17">
       <c r="A175" t="s">
         <v>190</v>
       </c>
@@ -17201,7 +17176,7 @@
         <v>2483</v>
       </c>
     </row>
-    <row r="176" spans="1:17" ht="15">
+    <row r="176" spans="1:17">
       <c r="A176" t="s">
         <v>191</v>
       </c>
@@ -17254,7 +17229,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="177" spans="1:17" ht="15">
+    <row r="177" spans="1:17">
       <c r="A177" t="s">
         <v>192</v>
       </c>
@@ -17307,7 +17282,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="178" spans="1:17" ht="15">
+    <row r="178" spans="1:17">
       <c r="A178" t="s">
         <v>193</v>
       </c>
@@ -17360,7 +17335,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="179" spans="1:17" ht="15">
+    <row r="179" spans="1:17">
       <c r="A179" t="s">
         <v>194</v>
       </c>
@@ -17413,7 +17388,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="180" spans="1:17" ht="15">
+    <row r="180" spans="1:17">
       <c r="A180" t="s">
         <v>195</v>
       </c>
@@ -17466,7 +17441,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="181" spans="1:17" ht="15">
+    <row r="181" spans="1:17">
       <c r="A181" t="s">
         <v>196</v>
       </c>
@@ -17519,7 +17494,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="182" spans="1:17" ht="15">
+    <row r="182" spans="1:17">
       <c r="A182" t="s">
         <v>197</v>
       </c>
@@ -17572,7 +17547,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="183" spans="1:17" ht="15">
+    <row r="183" spans="1:17">
       <c r="A183" t="s">
         <v>198</v>
       </c>
@@ -17625,7 +17600,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="184" spans="1:17" ht="15">
+    <row r="184" spans="1:17">
       <c r="A184" t="s">
         <v>199</v>
       </c>
@@ -17678,7 +17653,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="185" spans="1:17" ht="15">
+    <row r="185" spans="1:17">
       <c r="A185" t="s">
         <v>200</v>
       </c>
@@ -17728,7 +17703,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="186" spans="1:17" ht="15">
+    <row r="186" spans="1:17">
       <c r="A186" t="s">
         <v>201</v>
       </c>
@@ -17778,7 +17753,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="187" spans="1:17" ht="15">
+    <row r="187" spans="1:17">
       <c r="A187" t="s">
         <v>202</v>
       </c>
@@ -17831,7 +17806,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="188" spans="1:17" ht="15">
+    <row r="188" spans="1:17">
       <c r="A188" t="s">
         <v>203</v>
       </c>
@@ -17884,7 +17859,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="189" spans="1:17" ht="15">
+    <row r="189" spans="1:17">
       <c r="A189" t="s">
         <v>204</v>
       </c>
@@ -17934,7 +17909,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="190" spans="1:17" ht="15">
+    <row r="190" spans="1:17">
       <c r="A190" t="s">
         <v>205</v>
       </c>
@@ -17984,7 +17959,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="191" spans="1:17" ht="15">
+    <row r="191" spans="1:17">
       <c r="A191" t="s">
         <v>206</v>
       </c>
@@ -18037,7 +18012,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="192" spans="1:17" ht="15">
+    <row r="192" spans="1:17">
       <c r="A192" t="s">
         <v>207</v>
       </c>
@@ -18090,7 +18065,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="193" spans="1:17" ht="15">
+    <row r="193" spans="1:17">
       <c r="A193" t="s">
         <v>208</v>
       </c>
@@ -18140,7 +18115,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="194" spans="1:17" ht="15">
+    <row r="194" spans="1:17">
       <c r="A194" t="s">
         <v>209</v>
       </c>
@@ -18193,7 +18168,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="195" spans="1:17" ht="15">
+    <row r="195" spans="1:17">
       <c r="A195" t="s">
         <v>210</v>
       </c>
@@ -18246,7 +18221,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="196" spans="1:17" ht="15">
+    <row r="196" spans="1:17">
       <c r="A196" t="s">
         <v>211</v>
       </c>
@@ -18299,7 +18274,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="197" spans="1:17" ht="15">
+    <row r="197" spans="1:17">
       <c r="A197" t="s">
         <v>212</v>
       </c>
@@ -18352,7 +18327,7 @@
         <v>2468</v>
       </c>
     </row>
-    <row r="198" spans="1:17" ht="15">
+    <row r="198" spans="1:17">
       <c r="A198" t="s">
         <v>213</v>
       </c>
@@ -18405,7 +18380,7 @@
         <v>2468</v>
       </c>
     </row>
-    <row r="199" spans="1:17" ht="15">
+    <row r="199" spans="1:17">
       <c r="A199" t="s">
         <v>214</v>
       </c>
@@ -18458,7 +18433,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="200" spans="1:17" ht="15">
+    <row r="200" spans="1:17">
       <c r="A200" t="s">
         <v>215</v>
       </c>
@@ -18508,7 +18483,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="201" spans="1:17" ht="15">
+    <row r="201" spans="1:17">
       <c r="A201" t="s">
         <v>216</v>
       </c>
@@ -18558,7 +18533,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="202" spans="1:17" ht="15">
+    <row r="202" spans="1:17">
       <c r="A202" t="s">
         <v>217</v>
       </c>
@@ -18605,7 +18580,7 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="203" spans="1:17" ht="15">
+    <row r="203" spans="1:17">
       <c r="A203" t="s">
         <v>218</v>
       </c>
@@ -18652,7 +18627,7 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="204" spans="1:17" ht="15">
+    <row r="204" spans="1:17">
       <c r="A204" t="s">
         <v>219</v>
       </c>
@@ -18702,7 +18677,7 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="205" spans="1:17" ht="15">
+    <row r="205" spans="1:17">
       <c r="A205" t="s">
         <v>220</v>
       </c>
@@ -18752,7 +18727,7 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="206" spans="1:17" ht="15">
+    <row r="206" spans="1:17">
       <c r="A206" t="s">
         <v>221</v>
       </c>
@@ -18802,7 +18777,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="207" spans="1:17" ht="15">
+    <row r="207" spans="1:17">
       <c r="A207" t="s">
         <v>222</v>
       </c>
@@ -18855,7 +18830,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="208" spans="1:17" ht="15">
+    <row r="208" spans="1:17">
       <c r="A208" t="s">
         <v>223</v>
       </c>
@@ -18908,7 +18883,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="209" spans="1:17" ht="15">
+    <row r="209" spans="1:17">
       <c r="A209" t="s">
         <v>224</v>
       </c>
@@ -18961,7 +18936,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="210" spans="1:17" ht="15">
+    <row r="210" spans="1:17">
       <c r="A210" t="s">
         <v>225</v>
       </c>
@@ -19011,7 +18986,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="211" spans="1:17" ht="15">
+    <row r="211" spans="1:17">
       <c r="A211" t="s">
         <v>226</v>
       </c>
@@ -19061,7 +19036,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="212" spans="1:17" ht="15">
+    <row r="212" spans="1:17">
       <c r="A212" t="s">
         <v>227</v>
       </c>
@@ -19108,7 +19083,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="213" spans="1:17" ht="15">
+    <row r="213" spans="1:17">
       <c r="A213" t="s">
         <v>228</v>
       </c>
@@ -19161,7 +19136,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="214" spans="1:17" ht="15">
+    <row r="214" spans="1:17">
       <c r="A214" t="s">
         <v>229</v>
       </c>
@@ -19214,7 +19189,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="215" spans="1:17" ht="15">
+    <row r="215" spans="1:17">
       <c r="A215" t="s">
         <v>230</v>
       </c>
@@ -19267,7 +19242,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="216" spans="1:17" ht="15">
+    <row r="216" spans="1:17">
       <c r="A216" t="s">
         <v>231</v>
       </c>
@@ -19284,7 +19259,7 @@
         <v>1249</v>
       </c>
       <c r="F216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G216" t="s">
         <v>1366</v>
@@ -19314,13 +19289,13 @@
         <v>1794</v>
       </c>
       <c r="P216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q216" t="s">
         <v>2469</v>
       </c>
     </row>
-    <row r="217" spans="1:17" ht="15">
+    <row r="217" spans="1:17">
       <c r="A217" t="s">
         <v>232</v>
       </c>
@@ -19337,7 +19312,7 @@
         <v>1250</v>
       </c>
       <c r="F217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G217" t="s">
         <v>1366</v>
@@ -19364,13 +19339,13 @@
         <v>2450</v>
       </c>
       <c r="P217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q217" t="s">
         <v>2466</v>
       </c>
     </row>
-    <row r="218" spans="1:17" ht="15">
+    <row r="218" spans="1:17">
       <c r="A218" t="s">
         <v>233</v>
       </c>
@@ -19387,7 +19362,7 @@
         <v>1251</v>
       </c>
       <c r="F218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G218" t="s">
         <v>1366</v>
@@ -19417,13 +19392,13 @@
         <v>1796</v>
       </c>
       <c r="P218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q218" t="s">
         <v>2487</v>
       </c>
     </row>
-    <row r="219" spans="1:17" ht="15">
+    <row r="219" spans="1:17">
       <c r="A219" t="s">
         <v>234</v>
       </c>
@@ -19476,7 +19451,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="220" spans="1:17" ht="15">
+    <row r="220" spans="1:17">
       <c r="A220" t="s">
         <v>235</v>
       </c>
@@ -19529,7 +19504,7 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="221" spans="1:17" ht="15">
+    <row r="221" spans="1:17">
       <c r="A221" t="s">
         <v>236</v>
       </c>
@@ -19546,7 +19521,7 @@
         <v>1254</v>
       </c>
       <c r="F221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G221" t="s">
         <v>1366</v>
@@ -19573,13 +19548,13 @@
         <v>1798</v>
       </c>
       <c r="P221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q221" t="s">
         <v>2466</v>
       </c>
     </row>
-    <row r="222" spans="1:17" ht="15">
+    <row r="222" spans="1:17">
       <c r="A222" t="s">
         <v>237</v>
       </c>
@@ -19596,7 +19571,7 @@
         <v>1255</v>
       </c>
       <c r="F222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G222" t="s">
         <v>1366</v>
@@ -19626,13 +19601,13 @@
         <v>1799</v>
       </c>
       <c r="P222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q222" t="s">
         <v>2488</v>
       </c>
     </row>
-    <row r="223" spans="1:17" ht="15">
+    <row r="223" spans="1:17">
       <c r="A223" t="s">
         <v>238</v>
       </c>
@@ -19649,7 +19624,7 @@
         <v>1256</v>
       </c>
       <c r="F223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G223" t="s">
         <v>1366</v>
@@ -19679,13 +19654,13 @@
         <v>2451</v>
       </c>
       <c r="P223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q223" t="s">
         <v>2466</v>
       </c>
     </row>
-    <row r="224" spans="1:17" ht="15">
+    <row r="224" spans="1:17">
       <c r="A224" t="s">
         <v>239</v>
       </c>
@@ -19702,7 +19677,7 @@
         <v>1257</v>
       </c>
       <c r="F224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G224" t="s">
         <v>1366</v>
@@ -19726,13 +19701,13 @@
         <v>1801</v>
       </c>
       <c r="P224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q224" t="s">
         <v>2477</v>
       </c>
     </row>
-    <row r="225" spans="1:17" ht="15">
+    <row r="225" spans="1:17">
       <c r="A225" t="s">
         <v>240</v>
       </c>
@@ -19785,7 +19760,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="226" spans="1:17" ht="15">
+    <row r="226" spans="1:17">
       <c r="A226" t="s">
         <v>241</v>
       </c>
@@ -19802,7 +19777,7 @@
         <v>1259</v>
       </c>
       <c r="F226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G226" t="s">
         <v>1366</v>
@@ -19832,13 +19807,13 @@
         <v>1803</v>
       </c>
       <c r="P226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q226" t="s">
         <v>2489</v>
       </c>
     </row>
-    <row r="227" spans="1:17" ht="15">
+    <row r="227" spans="1:17">
       <c r="A227" t="s">
         <v>242</v>
       </c>
@@ -19855,7 +19830,7 @@
         <v>1260</v>
       </c>
       <c r="F227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G227" t="s">
         <v>1366</v>
@@ -19879,13 +19854,13 @@
         <v>2453</v>
       </c>
       <c r="P227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q227" t="s">
         <v>2466</v>
       </c>
     </row>
-    <row r="228" spans="1:17" ht="15">
+    <row r="228" spans="1:17">
       <c r="A228" t="s">
         <v>243</v>
       </c>
@@ -19902,7 +19877,7 @@
         <v>1261</v>
       </c>
       <c r="F228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G228" t="s">
         <v>1366</v>
@@ -19929,13 +19904,13 @@
         <v>1805</v>
       </c>
       <c r="P228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q228" t="s">
         <v>2490</v>
       </c>
     </row>
-    <row r="229" spans="1:17" ht="15">
+    <row r="229" spans="1:17">
       <c r="A229" t="s">
         <v>244</v>
       </c>
@@ -19952,7 +19927,7 @@
         <v>1262</v>
       </c>
       <c r="F229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G229" t="s">
         <v>1366</v>
@@ -19982,13 +19957,13 @@
         <v>1806</v>
       </c>
       <c r="P229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q229" t="s">
         <v>2475</v>
       </c>
     </row>
-    <row r="230" spans="1:17" ht="15">
+    <row r="230" spans="1:17">
       <c r="A230" t="s">
         <v>245</v>
       </c>
@@ -20005,7 +19980,7 @@
         <v>1263</v>
       </c>
       <c r="F230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G230" t="s">
         <v>1366</v>
@@ -20035,13 +20010,13 @@
         <v>1807</v>
       </c>
       <c r="P230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q230" t="s">
         <v>2466</v>
       </c>
     </row>
-    <row r="231" spans="1:17" ht="15">
+    <row r="231" spans="1:17">
       <c r="A231" t="s">
         <v>246</v>
       </c>
@@ -20058,7 +20033,7 @@
         <v>1264</v>
       </c>
       <c r="F231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G231" t="s">
         <v>1366</v>
@@ -20085,13 +20060,13 @@
         <v>1808</v>
       </c>
       <c r="P231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q231" t="s">
         <v>2466</v>
       </c>
     </row>
-    <row r="232" spans="1:17" ht="15">
+    <row r="232" spans="1:17">
       <c r="A232" t="s">
         <v>247</v>
       </c>
@@ -20144,7 +20119,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="233" spans="1:17" ht="15">
+    <row r="233" spans="1:17">
       <c r="A233" t="s">
         <v>248</v>
       </c>
@@ -20197,7 +20172,7 @@
         <v>2482</v>
       </c>
     </row>
-    <row r="234" spans="1:17" ht="15">
+    <row r="234" spans="1:17">
       <c r="A234" t="s">
         <v>249</v>
       </c>
@@ -20250,7 +20225,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="235" spans="1:17" ht="15">
+    <row r="235" spans="1:17">
       <c r="A235" t="s">
         <v>250</v>
       </c>
@@ -20303,7 +20278,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="236" spans="1:17" ht="15">
+    <row r="236" spans="1:17">
       <c r="A236" t="s">
         <v>251</v>
       </c>
@@ -20356,7 +20331,7 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="237" spans="1:17" ht="15">
+    <row r="237" spans="1:17">
       <c r="A237" t="s">
         <v>252</v>
       </c>
@@ -20409,7 +20384,7 @@
         <v>2472</v>
       </c>
     </row>
-    <row r="238" spans="1:17" ht="15">
+    <row r="238" spans="1:17">
       <c r="A238" t="s">
         <v>253</v>
       </c>
@@ -20462,7 +20437,7 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="239" spans="1:17" ht="15">
+    <row r="239" spans="1:17">
       <c r="A239" t="s">
         <v>254</v>
       </c>
@@ -20515,7 +20490,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="240" spans="1:17" ht="15">
+    <row r="240" spans="1:17">
       <c r="A240" t="s">
         <v>255</v>
       </c>
@@ -20568,7 +20543,7 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="241" spans="1:17" ht="15">
+    <row r="241" spans="1:17">
       <c r="A241" t="s">
         <v>256</v>
       </c>
@@ -20615,7 +20590,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="242" spans="1:17" ht="15">
+    <row r="242" spans="1:17">
       <c r="A242" t="s">
         <v>257</v>
       </c>
@@ -20668,7 +20643,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="243" spans="1:17" ht="15">
+    <row r="243" spans="1:17">
       <c r="A243" t="s">
         <v>258</v>
       </c>
@@ -20721,7 +20696,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="244" spans="1:17" ht="15">
+    <row r="244" spans="1:17">
       <c r="A244" t="s">
         <v>259</v>
       </c>
@@ -20815,7 +20790,7 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="246" spans="1:17" ht="15">
+    <row r="246" spans="1:17">
       <c r="A246" t="s">
         <v>261</v>
       </c>
@@ -20868,7 +20843,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="247" spans="1:17" ht="15">
+    <row r="247" spans="1:17">
       <c r="A247" t="s">
         <v>262</v>
       </c>
@@ -20921,7 +20896,7 @@
         <v>2482</v>
       </c>
     </row>
-    <row r="248" spans="1:17" ht="15">
+    <row r="248" spans="1:17">
       <c r="A248" t="s">
         <v>263</v>
       </c>
@@ -20971,7 +20946,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="249" spans="1:17" ht="15">
+    <row r="249" spans="1:17">
       <c r="A249" t="s">
         <v>264</v>
       </c>
@@ -21021,7 +20996,7 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="250" spans="1:17" ht="15">
+    <row r="250" spans="1:17">
       <c r="A250" t="s">
         <v>265</v>
       </c>
@@ -21071,7 +21046,7 @@
         <v>2482</v>
       </c>
     </row>
-    <row r="251" spans="1:17" ht="15">
+    <row r="251" spans="1:17">
       <c r="A251" t="s">
         <v>266</v>
       </c>
@@ -21124,7 +21099,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="252" spans="1:17" ht="15">
+    <row r="252" spans="1:17">
       <c r="A252" t="s">
         <v>267</v>
       </c>
@@ -21218,7 +21193,7 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="254" spans="1:17" ht="15">
+    <row r="254" spans="1:17">
       <c r="A254" t="s">
         <v>269</v>
       </c>
@@ -21268,7 +21243,7 @@
         <v>2494</v>
       </c>
     </row>
-    <row r="255" spans="1:17" ht="15">
+    <row r="255" spans="1:17">
       <c r="A255" t="s">
         <v>270</v>
       </c>
@@ -21315,7 +21290,7 @@
         <v>2495</v>
       </c>
     </row>
-    <row r="256" spans="1:17" ht="15">
+    <row r="256" spans="1:17">
       <c r="A256" t="s">
         <v>271</v>
       </c>
@@ -21412,7 +21387,7 @@
         <v>2483</v>
       </c>
     </row>
-    <row r="258" spans="1:17" ht="15">
+    <row r="258" spans="1:17">
       <c r="A258" t="s">
         <v>273</v>
       </c>
@@ -21465,7 +21440,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="259" spans="1:17" ht="15">
+    <row r="259" spans="1:17">
       <c r="A259" t="s">
         <v>274</v>
       </c>
@@ -21518,7 +21493,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="260" spans="1:17" ht="15">
+    <row r="260" spans="1:17">
       <c r="A260" t="s">
         <v>275</v>
       </c>
@@ -21571,7 +21546,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="261" spans="1:17" ht="15">
+    <row r="261" spans="1:17">
       <c r="A261" t="s">
         <v>276</v>
       </c>
@@ -21624,7 +21599,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="262" spans="1:17" ht="15">
+    <row r="262" spans="1:17">
       <c r="A262" t="s">
         <v>277</v>
       </c>
@@ -21674,7 +21649,7 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="263" spans="1:17" ht="15">
+    <row r="263" spans="1:17">
       <c r="A263" t="s">
         <v>278</v>
       </c>
@@ -21727,7 +21702,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="264" spans="1:17" ht="15">
+    <row r="264" spans="1:17">
       <c r="A264" t="s">
         <v>279</v>
       </c>
@@ -21774,7 +21749,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="265" spans="1:17" ht="15">
+    <row r="265" spans="1:17">
       <c r="A265" t="s">
         <v>280</v>
       </c>
@@ -21821,7 +21796,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="266" spans="1:17" ht="15">
+    <row r="266" spans="1:17">
       <c r="A266" t="s">
         <v>281</v>
       </c>
@@ -21868,7 +21843,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="267" spans="1:17" ht="15">
+    <row r="267" spans="1:17">
       <c r="A267" t="s">
         <v>282</v>
       </c>
@@ -21915,7 +21890,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="268" spans="1:17" ht="15">
+    <row r="268" spans="1:17">
       <c r="A268" t="s">
         <v>283</v>
       </c>
@@ -21965,7 +21940,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="269" spans="1:17" ht="15">
+    <row r="269" spans="1:17">
       <c r="A269" t="s">
         <v>284</v>
       </c>
@@ -22015,7 +21990,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="270" spans="1:17" ht="15">
+    <row r="270" spans="1:17">
       <c r="A270" t="s">
         <v>285</v>
       </c>
@@ -22065,7 +22040,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="271" spans="1:17" ht="15">
+    <row r="271" spans="1:17">
       <c r="A271" t="s">
         <v>286</v>
       </c>
@@ -22115,7 +22090,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="272" spans="1:17" ht="15">
+    <row r="272" spans="1:17">
       <c r="A272" t="s">
         <v>287</v>
       </c>
@@ -22162,7 +22137,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="273" spans="1:17" ht="15">
+    <row r="273" spans="1:17">
       <c r="A273" t="s">
         <v>288</v>
       </c>
@@ -22215,7 +22190,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="274" spans="1:17" ht="15">
+    <row r="274" spans="1:17">
       <c r="A274" t="s">
         <v>289</v>
       </c>
@@ -22268,7 +22243,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="275" spans="1:17" ht="15">
+    <row r="275" spans="1:17">
       <c r="A275" t="s">
         <v>290</v>
       </c>
@@ -22315,7 +22290,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="276" spans="1:17" ht="15">
+    <row r="276" spans="1:17">
       <c r="A276" t="s">
         <v>291</v>
       </c>
@@ -22365,7 +22340,7 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="277" spans="1:17" ht="15">
+    <row r="277" spans="1:17">
       <c r="A277" t="s">
         <v>292</v>
       </c>
@@ -22418,7 +22393,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="278" spans="1:17" ht="15">
+    <row r="278" spans="1:17">
       <c r="A278" t="s">
         <v>293</v>
       </c>
@@ -22471,7 +22446,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="279" spans="1:17" ht="15">
+    <row r="279" spans="1:17">
       <c r="A279" t="s">
         <v>294</v>
       </c>
@@ -22518,7 +22493,7 @@
         <v>2504</v>
       </c>
     </row>
-    <row r="280" spans="1:17" ht="15">
+    <row r="280" spans="1:17">
       <c r="A280" t="s">
         <v>295</v>
       </c>
@@ -22571,7 +22546,7 @@
         <v>2477</v>
       </c>
     </row>
-    <row r="281" spans="1:17" ht="15">
+    <row r="281" spans="1:17">
       <c r="A281" t="s">
         <v>296</v>
       </c>
@@ -22618,7 +22593,7 @@
         <v>2505</v>
       </c>
     </row>
-    <row r="282" spans="1:17" ht="15">
+    <row r="282" spans="1:17">
       <c r="A282" t="s">
         <v>297</v>
       </c>
@@ -22668,7 +22643,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="283" spans="1:17" ht="15">
+    <row r="283" spans="1:17">
       <c r="A283" t="s">
         <v>298</v>
       </c>
@@ -22721,7 +22696,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="284" spans="1:17" ht="15">
+    <row r="284" spans="1:17">
       <c r="A284" t="s">
         <v>299</v>
       </c>
@@ -22771,7 +22746,7 @@
         <v>2506</v>
       </c>
     </row>
-    <row r="285" spans="1:17" ht="15">
+    <row r="285" spans="1:17">
       <c r="A285" t="s">
         <v>300</v>
       </c>
@@ -22824,7 +22799,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="286" spans="1:17" ht="15">
+    <row r="286" spans="1:17">
       <c r="A286" t="s">
         <v>301</v>
       </c>
@@ -22877,7 +22852,7 @@
         <v>2507</v>
       </c>
     </row>
-    <row r="287" spans="1:17" ht="15">
+    <row r="287" spans="1:17">
       <c r="A287" t="s">
         <v>302</v>
       </c>
@@ -22927,7 +22902,7 @@
         <v>2508</v>
       </c>
     </row>
-    <row r="288" spans="1:17" ht="15">
+    <row r="288" spans="1:17">
       <c r="A288" t="s">
         <v>303</v>
       </c>
@@ -22980,7 +22955,7 @@
         <v>2509</v>
       </c>
     </row>
-    <row r="289" spans="1:17" ht="15">
+    <row r="289" spans="1:17">
       <c r="A289" t="s">
         <v>304</v>
       </c>
@@ -23030,7 +23005,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="290" spans="1:17" ht="15">
+    <row r="290" spans="1:17">
       <c r="A290" t="s">
         <v>305</v>
       </c>
@@ -23083,7 +23058,7 @@
         <v>2510</v>
       </c>
     </row>
-    <row r="291" spans="1:17" ht="15">
+    <row r="291" spans="1:17">
       <c r="A291" t="s">
         <v>306</v>
       </c>
@@ -23136,7 +23111,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="292" spans="1:17" ht="15">
+    <row r="292" spans="1:17">
       <c r="A292" t="s">
         <v>307</v>
       </c>
@@ -23186,7 +23161,7 @@
         <v>2511</v>
       </c>
     </row>
-    <row r="293" spans="1:17" ht="15">
+    <row r="293" spans="1:17">
       <c r="A293" t="s">
         <v>308</v>
       </c>
@@ -23236,7 +23211,7 @@
         <v>2512</v>
       </c>
     </row>
-    <row r="294" spans="1:17" ht="15">
+    <row r="294" spans="1:17">
       <c r="A294" t="s">
         <v>309</v>
       </c>
@@ -23289,7 +23264,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="295" spans="1:17" ht="15">
+    <row r="295" spans="1:17">
       <c r="A295" t="s">
         <v>310</v>
       </c>
@@ -23342,7 +23317,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="296" spans="1:17" ht="15">
+    <row r="296" spans="1:17">
       <c r="A296" t="s">
         <v>311</v>
       </c>
@@ -23395,7 +23370,7 @@
         <v>2512</v>
       </c>
     </row>
-    <row r="297" spans="1:17" ht="15">
+    <row r="297" spans="1:17">
       <c r="A297" t="s">
         <v>312</v>
       </c>
@@ -23445,7 +23420,7 @@
         <v>2474</v>
       </c>
     </row>
-    <row r="298" spans="1:17" ht="15">
+    <row r="298" spans="1:17">
       <c r="A298" t="s">
         <v>313</v>
       </c>
@@ -23498,7 +23473,7 @@
         <v>2472</v>
       </c>
     </row>
-    <row r="299" spans="1:17" ht="15">
+    <row r="299" spans="1:17">
       <c r="A299" t="s">
         <v>314</v>
       </c>
@@ -23551,7 +23526,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="300" spans="1:17" ht="15">
+    <row r="300" spans="1:17">
       <c r="A300" t="s">
         <v>315</v>
       </c>
@@ -23604,7 +23579,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="301" spans="1:17" ht="15">
+    <row r="301" spans="1:17">
       <c r="A301" t="s">
         <v>316</v>
       </c>
@@ -23657,7 +23632,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="302" spans="1:17" ht="15">
+    <row r="302" spans="1:17">
       <c r="A302" t="s">
         <v>317</v>
       </c>
@@ -23707,7 +23682,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="303" spans="1:17" ht="15">
+    <row r="303" spans="1:17">
       <c r="A303" t="s">
         <v>318</v>
       </c>
@@ -23754,7 +23729,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="304" spans="1:17" ht="15">
+    <row r="304" spans="1:17">
       <c r="A304" t="s">
         <v>319</v>
       </c>
@@ -23804,7 +23779,7 @@
         <v>2472</v>
       </c>
     </row>
-    <row r="305" spans="1:17" ht="15">
+    <row r="305" spans="1:17">
       <c r="A305" t="s">
         <v>320</v>
       </c>
@@ -23857,7 +23832,7 @@
         <v>2477</v>
       </c>
     </row>
-    <row r="306" spans="1:17" ht="15">
+    <row r="306" spans="1:17">
       <c r="A306" t="s">
         <v>321</v>
       </c>
@@ -23910,7 +23885,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="307" spans="1:17" ht="15">
+    <row r="307" spans="1:17">
       <c r="A307" t="s">
         <v>322</v>
       </c>
@@ -23963,7 +23938,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="308" spans="1:17" ht="15">
+    <row r="308" spans="1:17">
       <c r="A308" t="s">
         <v>323</v>
       </c>
@@ -24016,7 +23991,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="309" spans="1:17" ht="15">
+    <row r="309" spans="1:17">
       <c r="A309" t="s">
         <v>324</v>
       </c>
@@ -24069,7 +24044,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="310" spans="1:17" ht="15">
+    <row r="310" spans="1:17">
       <c r="A310" t="s">
         <v>325</v>
       </c>
@@ -24122,7 +24097,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="311" spans="1:17" ht="15">
+    <row r="311" spans="1:17">
       <c r="A311" t="s">
         <v>326</v>
       </c>
@@ -24175,7 +24150,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="312" spans="1:17" ht="15">
+    <row r="312" spans="1:17">
       <c r="A312" t="s">
         <v>327</v>
       </c>
@@ -24228,7 +24203,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="313" spans="1:17" ht="15">
+    <row r="313" spans="1:17">
       <c r="A313" t="s">
         <v>328</v>
       </c>
@@ -24281,7 +24256,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="314" spans="1:17" ht="15">
+    <row r="314" spans="1:17">
       <c r="A314" t="s">
         <v>329</v>
       </c>
@@ -24331,7 +24306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:17" ht="15">
+    <row r="315" spans="1:17">
       <c r="A315" t="s">
         <v>330</v>
       </c>
@@ -24378,7 +24353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:17" ht="15">
+    <row r="316" spans="1:17">
       <c r="A316" t="s">
         <v>331</v>
       </c>
@@ -24425,7 +24400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:17" ht="15">
+    <row r="317" spans="1:17">
       <c r="A317" t="s">
         <v>332</v>
       </c>
@@ -24472,7 +24447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:17" ht="15">
+    <row r="318" spans="1:17">
       <c r="A318" t="s">
         <v>333</v>
       </c>
@@ -24519,7 +24494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:17" ht="15">
+    <row r="319" spans="1:17">
       <c r="A319" t="s">
         <v>334</v>
       </c>
@@ -24569,7 +24544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:17" ht="15">
+    <row r="320" spans="1:17">
       <c r="A320" t="s">
         <v>335</v>
       </c>
@@ -24616,7 +24591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:16" ht="15">
+    <row r="321" spans="1:16">
       <c r="A321" t="s">
         <v>336</v>
       </c>
@@ -24666,7 +24641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:16" ht="15">
+    <row r="322" spans="1:16">
       <c r="A322" t="s">
         <v>337</v>
       </c>
@@ -24683,7 +24658,7 @@
         <v>1352</v>
       </c>
       <c r="F322">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G322" t="s">
         <v>1366</v>
@@ -24710,10 +24685,10 @@
         <v>1883</v>
       </c>
       <c r="P322">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="323" spans="1:16" ht="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:16">
       <c r="A323" t="s">
         <v>338</v>
       </c>
@@ -24760,7 +24735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:16" ht="15">
+    <row r="324" spans="1:16">
       <c r="A324" t="s">
         <v>339</v>
       </c>
@@ -24804,7 +24779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:16" ht="15">
+    <row r="325" spans="1:16">
       <c r="A325" t="s">
         <v>340</v>
       </c>
@@ -24821,7 +24796,7 @@
         <v>1355</v>
       </c>
       <c r="F325">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G325" t="s">
         <v>1366</v>
@@ -24845,10 +24820,10 @@
         <v>1886</v>
       </c>
       <c r="P325">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="326" spans="1:16" ht="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:16">
       <c r="A326" t="s">
         <v>341</v>
       </c>
@@ -25018,7 +24993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:16" ht="15">
+    <row r="330" spans="1:16">
       <c r="A330" t="s">
         <v>345</v>
       </c>
@@ -25062,7 +25037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:16" ht="15">
+    <row r="331" spans="1:16">
       <c r="A331" t="s">
         <v>346</v>
       </c>
@@ -25106,7 +25081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:16" ht="15">
+    <row r="332" spans="1:16">
       <c r="A332" t="s">
         <v>347</v>
       </c>
@@ -25333,7 +25308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:16" ht="15">
+    <row r="339" spans="1:16">
       <c r="A339" t="s">
         <v>354</v>
       </c>
@@ -25383,7 +25358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:16" ht="15">
+    <row r="340" spans="1:16">
       <c r="A340" t="s">
         <v>355</v>
       </c>
@@ -25433,7 +25408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:16" ht="15">
+    <row r="341" spans="1:16">
       <c r="A341" t="s">
         <v>356</v>
       </c>
@@ -25477,7 +25452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:16" ht="15">
+    <row r="342" spans="1:16">
       <c r="A342" t="s">
         <v>357</v>
       </c>
@@ -25521,7 +25496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:16" ht="15">
+    <row r="343" spans="1:16">
       <c r="A343" t="s">
         <v>358</v>
       </c>
@@ -25565,7 +25540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:16" ht="15">
+    <row r="344" spans="1:16">
       <c r="A344" t="s">
         <v>359</v>
       </c>
@@ -25616,336 +25591,335 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="E6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="E7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="E8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="E9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="E10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="E11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="E12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="E13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="E14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="E15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="E16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="E17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="E18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="E19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="E20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="E21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="E22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="E23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="E24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="E25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="E26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="E27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="E28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="E29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="E30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="E31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="E32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="E33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="E34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="E35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="E36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="E37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="E38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="E39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="E40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="E41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="E42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="E43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="E44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="E45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="E46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="E47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="E48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="E49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="E50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="E51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="E52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="E53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="E54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="E55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="E56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="E57" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="E58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="E59" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="E60" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="E61" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="E62" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="E63" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="E64" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="E65" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="E66" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="E67" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="E68" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="E69" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="E70" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="E71" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="E72" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="E73" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="E74" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="E75" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="E76" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="E77" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="E78" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="E79" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="E80" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="E81" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="E82" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="E83" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="E84" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="E85" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="E86" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="E87" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="E88" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="E89" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="E90" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="E91" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="E92" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="E93" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="E94" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="E95" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="E96" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="E97" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="E98" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="E99" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="E100" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="E101" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="E102" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="E103" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="E104" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="E105" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="E106" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="E107" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="E108" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="E109" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="E110" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="E111" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="E112" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="E113" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="E114" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="E115" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="E116" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="E117" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="E118" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="E119" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="E120" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="E121" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="E123" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="E124" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="E125" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="E126" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="E127" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="E128" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="E129" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="E130" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="E131" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="E132" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="E133" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="E134" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="E135" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="E136" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="E137" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="E138" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="E139" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="E140" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="E141" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="E142" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="E143" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="E144" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="E145" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="E146" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="E147" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="E148" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="E149" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="E150" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="E151" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="E152" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="E153" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="E154" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="E155" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="E156" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="E157" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="E158" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="E159" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="E160" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="E161" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="E162" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="E163" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="E164" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="E165" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="E166" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="E167" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="E168" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="E169" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="E170" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="E173" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="E174" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="E175" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="E176" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="E177" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="E178" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="E179" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="E180" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="E181" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="E182" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="E183" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="E184" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="E185" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="E186" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="E187" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="E188" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="E189" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="E190" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="E191" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="E192" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="E193" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="E194" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="E195" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="E196" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="E197" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="E198" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="E199" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="E200" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="E201" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="E202" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="E203" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="E204" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="E205" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="E206" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="E207" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="E208" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
-    <hyperlink ref="E209" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="E210" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="E211" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="E212" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="E213" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="E214" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="E215" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="E216" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="E217" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="E218" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="E219" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="E220" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
-    <hyperlink ref="E221" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="E222" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="E223" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="E224" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="E225" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
-    <hyperlink ref="E226" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="E227" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="E228" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="E229" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="E230" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="E231" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
-    <hyperlink ref="E232" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="E233" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="E234" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="E235" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="E236" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="E237" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="E238" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="E239" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="E240" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
-    <hyperlink ref="E241" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="E242" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="E243" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="E244" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="E246" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="E247" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="E248" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="E249" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="E250" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="E251" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="E252" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="E254" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="E255" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
-    <hyperlink ref="E256" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="E258" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
-    <hyperlink ref="E259" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
-    <hyperlink ref="E260" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
-    <hyperlink ref="E261" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
-    <hyperlink ref="E262" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
-    <hyperlink ref="E263" r:id="rId256" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
-    <hyperlink ref="E264" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
-    <hyperlink ref="E265" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
-    <hyperlink ref="E266" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
-    <hyperlink ref="E267" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
-    <hyperlink ref="E268" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
-    <hyperlink ref="E269" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
-    <hyperlink ref="E270" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
-    <hyperlink ref="E271" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
-    <hyperlink ref="E272" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
-    <hyperlink ref="E273" r:id="rId266" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
-    <hyperlink ref="E274" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
-    <hyperlink ref="E275" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
-    <hyperlink ref="E276" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
-    <hyperlink ref="E277" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
-    <hyperlink ref="E278" r:id="rId271" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
-    <hyperlink ref="E279" r:id="rId272" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
-    <hyperlink ref="E280" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
-    <hyperlink ref="E281" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
-    <hyperlink ref="E282" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
-    <hyperlink ref="E283" r:id="rId276" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
-    <hyperlink ref="E284" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
-    <hyperlink ref="E285" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
-    <hyperlink ref="E286" r:id="rId279" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
-    <hyperlink ref="E287" r:id="rId280" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
-    <hyperlink ref="E288" r:id="rId281" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
-    <hyperlink ref="E289" r:id="rId282" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
-    <hyperlink ref="E290" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
-    <hyperlink ref="E291" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
-    <hyperlink ref="E292" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
-    <hyperlink ref="E293" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
-    <hyperlink ref="E294" r:id="rId287" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
-    <hyperlink ref="E295" r:id="rId288" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
-    <hyperlink ref="E296" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
-    <hyperlink ref="E297" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
-    <hyperlink ref="E298" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
-    <hyperlink ref="E299" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
-    <hyperlink ref="E300" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
-    <hyperlink ref="E301" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
-    <hyperlink ref="E302" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
-    <hyperlink ref="E303" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
-    <hyperlink ref="E304" r:id="rId297" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
-    <hyperlink ref="E305" r:id="rId298" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
-    <hyperlink ref="E306" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
-    <hyperlink ref="E307" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
-    <hyperlink ref="E308" r:id="rId301" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
-    <hyperlink ref="E309" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
-    <hyperlink ref="E310" r:id="rId303" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
-    <hyperlink ref="E311" r:id="rId304" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
-    <hyperlink ref="E312" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
-    <hyperlink ref="E313" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
-    <hyperlink ref="E314" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
-    <hyperlink ref="E315" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
-    <hyperlink ref="E316" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
-    <hyperlink ref="E317" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
-    <hyperlink ref="E318" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
-    <hyperlink ref="E319" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
-    <hyperlink ref="E320" r:id="rId313" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
-    <hyperlink ref="E321" r:id="rId314" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
-    <hyperlink ref="E322" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
-    <hyperlink ref="E323" r:id="rId316" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
-    <hyperlink ref="E324" r:id="rId317" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
-    <hyperlink ref="E325" r:id="rId318" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
-    <hyperlink ref="E326" r:id="rId319" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
-    <hyperlink ref="E330" r:id="rId320" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
-    <hyperlink ref="E331" r:id="rId321" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
-    <hyperlink ref="E332" r:id="rId322" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
-    <hyperlink ref="E339" r:id="rId323" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
-    <hyperlink ref="E340" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
-    <hyperlink ref="E341" r:id="rId325" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
-    <hyperlink ref="E342" r:id="rId326" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
-    <hyperlink ref="E343" r:id="rId327" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
-    <hyperlink ref="E344" r:id="rId328" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="E5" r:id="rId4"/>
+    <hyperlink ref="E6" r:id="rId5"/>
+    <hyperlink ref="E7" r:id="rId6"/>
+    <hyperlink ref="E8" r:id="rId7"/>
+    <hyperlink ref="E9" r:id="rId8"/>
+    <hyperlink ref="E10" r:id="rId9"/>
+    <hyperlink ref="E11" r:id="rId10"/>
+    <hyperlink ref="E12" r:id="rId11"/>
+    <hyperlink ref="E13" r:id="rId12"/>
+    <hyperlink ref="E14" r:id="rId13"/>
+    <hyperlink ref="E15" r:id="rId14"/>
+    <hyperlink ref="E16" r:id="rId15"/>
+    <hyperlink ref="E17" r:id="rId16"/>
+    <hyperlink ref="E18" r:id="rId17"/>
+    <hyperlink ref="E19" r:id="rId18"/>
+    <hyperlink ref="E20" r:id="rId19"/>
+    <hyperlink ref="E21" r:id="rId20"/>
+    <hyperlink ref="E22" r:id="rId21"/>
+    <hyperlink ref="E23" r:id="rId22"/>
+    <hyperlink ref="E24" r:id="rId23"/>
+    <hyperlink ref="E25" r:id="rId24"/>
+    <hyperlink ref="E26" r:id="rId25"/>
+    <hyperlink ref="E27" r:id="rId26"/>
+    <hyperlink ref="E28" r:id="rId27"/>
+    <hyperlink ref="E29" r:id="rId28"/>
+    <hyperlink ref="E30" r:id="rId29"/>
+    <hyperlink ref="E31" r:id="rId30"/>
+    <hyperlink ref="E32" r:id="rId31"/>
+    <hyperlink ref="E33" r:id="rId32"/>
+    <hyperlink ref="E34" r:id="rId33"/>
+    <hyperlink ref="E35" r:id="rId34"/>
+    <hyperlink ref="E36" r:id="rId35"/>
+    <hyperlink ref="E37" r:id="rId36"/>
+    <hyperlink ref="E38" r:id="rId37"/>
+    <hyperlink ref="E39" r:id="rId38"/>
+    <hyperlink ref="E40" r:id="rId39"/>
+    <hyperlink ref="E41" r:id="rId40"/>
+    <hyperlink ref="E42" r:id="rId41"/>
+    <hyperlink ref="E43" r:id="rId42"/>
+    <hyperlink ref="E44" r:id="rId43"/>
+    <hyperlink ref="E45" r:id="rId44"/>
+    <hyperlink ref="E46" r:id="rId45"/>
+    <hyperlink ref="E47" r:id="rId46"/>
+    <hyperlink ref="E48" r:id="rId47"/>
+    <hyperlink ref="E49" r:id="rId48"/>
+    <hyperlink ref="E50" r:id="rId49"/>
+    <hyperlink ref="E51" r:id="rId50"/>
+    <hyperlink ref="E52" r:id="rId51"/>
+    <hyperlink ref="E53" r:id="rId52"/>
+    <hyperlink ref="E54" r:id="rId53"/>
+    <hyperlink ref="E55" r:id="rId54"/>
+    <hyperlink ref="E56" r:id="rId55"/>
+    <hyperlink ref="E57" r:id="rId56"/>
+    <hyperlink ref="E58" r:id="rId57"/>
+    <hyperlink ref="E59" r:id="rId58"/>
+    <hyperlink ref="E60" r:id="rId59"/>
+    <hyperlink ref="E61" r:id="rId60"/>
+    <hyperlink ref="E62" r:id="rId61"/>
+    <hyperlink ref="E63" r:id="rId62"/>
+    <hyperlink ref="E64" r:id="rId63"/>
+    <hyperlink ref="E65" r:id="rId64"/>
+    <hyperlink ref="E66" r:id="rId65"/>
+    <hyperlink ref="E67" r:id="rId66"/>
+    <hyperlink ref="E68" r:id="rId67"/>
+    <hyperlink ref="E69" r:id="rId68"/>
+    <hyperlink ref="E70" r:id="rId69"/>
+    <hyperlink ref="E71" r:id="rId70"/>
+    <hyperlink ref="E72" r:id="rId71"/>
+    <hyperlink ref="E73" r:id="rId72"/>
+    <hyperlink ref="E74" r:id="rId73"/>
+    <hyperlink ref="E75" r:id="rId74"/>
+    <hyperlink ref="E76" r:id="rId75"/>
+    <hyperlink ref="E77" r:id="rId76"/>
+    <hyperlink ref="E78" r:id="rId77"/>
+    <hyperlink ref="E79" r:id="rId78"/>
+    <hyperlink ref="E80" r:id="rId79"/>
+    <hyperlink ref="E81" r:id="rId80"/>
+    <hyperlink ref="E82" r:id="rId81"/>
+    <hyperlink ref="E83" r:id="rId82"/>
+    <hyperlink ref="E84" r:id="rId83"/>
+    <hyperlink ref="E85" r:id="rId84"/>
+    <hyperlink ref="E86" r:id="rId85"/>
+    <hyperlink ref="E87" r:id="rId86"/>
+    <hyperlink ref="E88" r:id="rId87"/>
+    <hyperlink ref="E89" r:id="rId88"/>
+    <hyperlink ref="E90" r:id="rId89"/>
+    <hyperlink ref="E91" r:id="rId90"/>
+    <hyperlink ref="E92" r:id="rId91"/>
+    <hyperlink ref="E93" r:id="rId92"/>
+    <hyperlink ref="E94" r:id="rId93"/>
+    <hyperlink ref="E95" r:id="rId94"/>
+    <hyperlink ref="E96" r:id="rId95"/>
+    <hyperlink ref="E97" r:id="rId96"/>
+    <hyperlink ref="E98" r:id="rId97"/>
+    <hyperlink ref="E99" r:id="rId98"/>
+    <hyperlink ref="E100" r:id="rId99"/>
+    <hyperlink ref="E101" r:id="rId100"/>
+    <hyperlink ref="E102" r:id="rId101"/>
+    <hyperlink ref="E103" r:id="rId102"/>
+    <hyperlink ref="E104" r:id="rId103"/>
+    <hyperlink ref="E105" r:id="rId104"/>
+    <hyperlink ref="E106" r:id="rId105"/>
+    <hyperlink ref="E107" r:id="rId106"/>
+    <hyperlink ref="E108" r:id="rId107"/>
+    <hyperlink ref="E109" r:id="rId108"/>
+    <hyperlink ref="E110" r:id="rId109"/>
+    <hyperlink ref="E111" r:id="rId110"/>
+    <hyperlink ref="E112" r:id="rId111"/>
+    <hyperlink ref="E113" r:id="rId112"/>
+    <hyperlink ref="E114" r:id="rId113"/>
+    <hyperlink ref="E115" r:id="rId114"/>
+    <hyperlink ref="E116" r:id="rId115"/>
+    <hyperlink ref="E117" r:id="rId116"/>
+    <hyperlink ref="E118" r:id="rId117"/>
+    <hyperlink ref="E119" r:id="rId118"/>
+    <hyperlink ref="E120" r:id="rId119"/>
+    <hyperlink ref="E121" r:id="rId120"/>
+    <hyperlink ref="E123" r:id="rId121"/>
+    <hyperlink ref="E124" r:id="rId122"/>
+    <hyperlink ref="E125" r:id="rId123"/>
+    <hyperlink ref="E126" r:id="rId124"/>
+    <hyperlink ref="E127" r:id="rId125"/>
+    <hyperlink ref="E128" r:id="rId126"/>
+    <hyperlink ref="E129" r:id="rId127"/>
+    <hyperlink ref="E130" r:id="rId128"/>
+    <hyperlink ref="E131" r:id="rId129"/>
+    <hyperlink ref="E132" r:id="rId130"/>
+    <hyperlink ref="E133" r:id="rId131"/>
+    <hyperlink ref="E134" r:id="rId132"/>
+    <hyperlink ref="E135" r:id="rId133"/>
+    <hyperlink ref="E136" r:id="rId134"/>
+    <hyperlink ref="E137" r:id="rId135"/>
+    <hyperlink ref="E138" r:id="rId136"/>
+    <hyperlink ref="E139" r:id="rId137"/>
+    <hyperlink ref="E140" r:id="rId138"/>
+    <hyperlink ref="E141" r:id="rId139"/>
+    <hyperlink ref="E142" r:id="rId140"/>
+    <hyperlink ref="E143" r:id="rId141"/>
+    <hyperlink ref="E144" r:id="rId142"/>
+    <hyperlink ref="E145" r:id="rId143"/>
+    <hyperlink ref="E146" r:id="rId144"/>
+    <hyperlink ref="E147" r:id="rId145"/>
+    <hyperlink ref="E148" r:id="rId146"/>
+    <hyperlink ref="E149" r:id="rId147"/>
+    <hyperlink ref="E150" r:id="rId148"/>
+    <hyperlink ref="E151" r:id="rId149"/>
+    <hyperlink ref="E152" r:id="rId150"/>
+    <hyperlink ref="E153" r:id="rId151"/>
+    <hyperlink ref="E154" r:id="rId152"/>
+    <hyperlink ref="E155" r:id="rId153"/>
+    <hyperlink ref="E156" r:id="rId154"/>
+    <hyperlink ref="E157" r:id="rId155"/>
+    <hyperlink ref="E158" r:id="rId156"/>
+    <hyperlink ref="E159" r:id="rId157"/>
+    <hyperlink ref="E160" r:id="rId158"/>
+    <hyperlink ref="E161" r:id="rId159"/>
+    <hyperlink ref="E162" r:id="rId160"/>
+    <hyperlink ref="E163" r:id="rId161"/>
+    <hyperlink ref="E164" r:id="rId162"/>
+    <hyperlink ref="E165" r:id="rId163"/>
+    <hyperlink ref="E166" r:id="rId164"/>
+    <hyperlink ref="E167" r:id="rId165"/>
+    <hyperlink ref="E168" r:id="rId166"/>
+    <hyperlink ref="E169" r:id="rId167"/>
+    <hyperlink ref="E170" r:id="rId168"/>
+    <hyperlink ref="E173" r:id="rId169"/>
+    <hyperlink ref="E174" r:id="rId170"/>
+    <hyperlink ref="E175" r:id="rId171"/>
+    <hyperlink ref="E176" r:id="rId172"/>
+    <hyperlink ref="E177" r:id="rId173"/>
+    <hyperlink ref="E178" r:id="rId174"/>
+    <hyperlink ref="E179" r:id="rId175"/>
+    <hyperlink ref="E180" r:id="rId176"/>
+    <hyperlink ref="E181" r:id="rId177"/>
+    <hyperlink ref="E182" r:id="rId178"/>
+    <hyperlink ref="E183" r:id="rId179"/>
+    <hyperlink ref="E184" r:id="rId180"/>
+    <hyperlink ref="E185" r:id="rId181"/>
+    <hyperlink ref="E186" r:id="rId182"/>
+    <hyperlink ref="E187" r:id="rId183"/>
+    <hyperlink ref="E188" r:id="rId184"/>
+    <hyperlink ref="E189" r:id="rId185"/>
+    <hyperlink ref="E190" r:id="rId186"/>
+    <hyperlink ref="E191" r:id="rId187"/>
+    <hyperlink ref="E192" r:id="rId188"/>
+    <hyperlink ref="E193" r:id="rId189"/>
+    <hyperlink ref="E194" r:id="rId190"/>
+    <hyperlink ref="E195" r:id="rId191"/>
+    <hyperlink ref="E196" r:id="rId192"/>
+    <hyperlink ref="E197" r:id="rId193"/>
+    <hyperlink ref="E198" r:id="rId194"/>
+    <hyperlink ref="E199" r:id="rId195"/>
+    <hyperlink ref="E200" r:id="rId196"/>
+    <hyperlink ref="E201" r:id="rId197"/>
+    <hyperlink ref="E202" r:id="rId198"/>
+    <hyperlink ref="E203" r:id="rId199"/>
+    <hyperlink ref="E204" r:id="rId200"/>
+    <hyperlink ref="E205" r:id="rId201"/>
+    <hyperlink ref="E206" r:id="rId202"/>
+    <hyperlink ref="E207" r:id="rId203"/>
+    <hyperlink ref="E208" r:id="rId204"/>
+    <hyperlink ref="E209" r:id="rId205"/>
+    <hyperlink ref="E210" r:id="rId206"/>
+    <hyperlink ref="E211" r:id="rId207"/>
+    <hyperlink ref="E212" r:id="rId208"/>
+    <hyperlink ref="E213" r:id="rId209"/>
+    <hyperlink ref="E214" r:id="rId210"/>
+    <hyperlink ref="E215" r:id="rId211"/>
+    <hyperlink ref="E216" r:id="rId212"/>
+    <hyperlink ref="E217" r:id="rId213"/>
+    <hyperlink ref="E218" r:id="rId214"/>
+    <hyperlink ref="E219" r:id="rId215"/>
+    <hyperlink ref="E220" r:id="rId216"/>
+    <hyperlink ref="E221" r:id="rId217"/>
+    <hyperlink ref="E222" r:id="rId218"/>
+    <hyperlink ref="E223" r:id="rId219"/>
+    <hyperlink ref="E224" r:id="rId220"/>
+    <hyperlink ref="E225" r:id="rId221"/>
+    <hyperlink ref="E226" r:id="rId222"/>
+    <hyperlink ref="E227" r:id="rId223"/>
+    <hyperlink ref="E228" r:id="rId224"/>
+    <hyperlink ref="E229" r:id="rId225"/>
+    <hyperlink ref="E230" r:id="rId226"/>
+    <hyperlink ref="E231" r:id="rId227"/>
+    <hyperlink ref="E232" r:id="rId228"/>
+    <hyperlink ref="E233" r:id="rId229"/>
+    <hyperlink ref="E234" r:id="rId230"/>
+    <hyperlink ref="E235" r:id="rId231"/>
+    <hyperlink ref="E236" r:id="rId232"/>
+    <hyperlink ref="E237" r:id="rId233"/>
+    <hyperlink ref="E238" r:id="rId234"/>
+    <hyperlink ref="E239" r:id="rId235"/>
+    <hyperlink ref="E240" r:id="rId236"/>
+    <hyperlink ref="E241" r:id="rId237"/>
+    <hyperlink ref="E242" r:id="rId238"/>
+    <hyperlink ref="E243" r:id="rId239"/>
+    <hyperlink ref="E244" r:id="rId240"/>
+    <hyperlink ref="E246" r:id="rId241"/>
+    <hyperlink ref="E247" r:id="rId242"/>
+    <hyperlink ref="E248" r:id="rId243"/>
+    <hyperlink ref="E249" r:id="rId244"/>
+    <hyperlink ref="E250" r:id="rId245"/>
+    <hyperlink ref="E251" r:id="rId246"/>
+    <hyperlink ref="E252" r:id="rId247"/>
+    <hyperlink ref="E254" r:id="rId248"/>
+    <hyperlink ref="E255" r:id="rId249"/>
+    <hyperlink ref="E256" r:id="rId250"/>
+    <hyperlink ref="E258" r:id="rId251"/>
+    <hyperlink ref="E259" r:id="rId252"/>
+    <hyperlink ref="E260" r:id="rId253"/>
+    <hyperlink ref="E261" r:id="rId254"/>
+    <hyperlink ref="E262" r:id="rId255"/>
+    <hyperlink ref="E263" r:id="rId256"/>
+    <hyperlink ref="E264" r:id="rId257"/>
+    <hyperlink ref="E265" r:id="rId258"/>
+    <hyperlink ref="E266" r:id="rId259"/>
+    <hyperlink ref="E267" r:id="rId260"/>
+    <hyperlink ref="E268" r:id="rId261"/>
+    <hyperlink ref="E269" r:id="rId262"/>
+    <hyperlink ref="E270" r:id="rId263"/>
+    <hyperlink ref="E271" r:id="rId264"/>
+    <hyperlink ref="E272" r:id="rId265"/>
+    <hyperlink ref="E273" r:id="rId266"/>
+    <hyperlink ref="E274" r:id="rId267"/>
+    <hyperlink ref="E275" r:id="rId268"/>
+    <hyperlink ref="E276" r:id="rId269"/>
+    <hyperlink ref="E277" r:id="rId270"/>
+    <hyperlink ref="E278" r:id="rId271"/>
+    <hyperlink ref="E279" r:id="rId272"/>
+    <hyperlink ref="E280" r:id="rId273"/>
+    <hyperlink ref="E281" r:id="rId274"/>
+    <hyperlink ref="E282" r:id="rId275"/>
+    <hyperlink ref="E283" r:id="rId276"/>
+    <hyperlink ref="E284" r:id="rId277"/>
+    <hyperlink ref="E285" r:id="rId278"/>
+    <hyperlink ref="E286" r:id="rId279"/>
+    <hyperlink ref="E287" r:id="rId280"/>
+    <hyperlink ref="E288" r:id="rId281"/>
+    <hyperlink ref="E289" r:id="rId282"/>
+    <hyperlink ref="E290" r:id="rId283"/>
+    <hyperlink ref="E291" r:id="rId284"/>
+    <hyperlink ref="E292" r:id="rId285"/>
+    <hyperlink ref="E293" r:id="rId286"/>
+    <hyperlink ref="E294" r:id="rId287"/>
+    <hyperlink ref="E295" r:id="rId288"/>
+    <hyperlink ref="E296" r:id="rId289"/>
+    <hyperlink ref="E297" r:id="rId290"/>
+    <hyperlink ref="E298" r:id="rId291"/>
+    <hyperlink ref="E299" r:id="rId292"/>
+    <hyperlink ref="E300" r:id="rId293"/>
+    <hyperlink ref="E301" r:id="rId294"/>
+    <hyperlink ref="E302" r:id="rId295"/>
+    <hyperlink ref="E303" r:id="rId296"/>
+    <hyperlink ref="E304" r:id="rId297"/>
+    <hyperlink ref="E305" r:id="rId298"/>
+    <hyperlink ref="E306" r:id="rId299"/>
+    <hyperlink ref="E307" r:id="rId300"/>
+    <hyperlink ref="E308" r:id="rId301"/>
+    <hyperlink ref="E309" r:id="rId302"/>
+    <hyperlink ref="E310" r:id="rId303"/>
+    <hyperlink ref="E311" r:id="rId304"/>
+    <hyperlink ref="E312" r:id="rId305"/>
+    <hyperlink ref="E313" r:id="rId306"/>
+    <hyperlink ref="E314" r:id="rId307"/>
+    <hyperlink ref="E315" r:id="rId308"/>
+    <hyperlink ref="E316" r:id="rId309"/>
+    <hyperlink ref="E317" r:id="rId310"/>
+    <hyperlink ref="E318" r:id="rId311"/>
+    <hyperlink ref="E319" r:id="rId312"/>
+    <hyperlink ref="E320" r:id="rId313"/>
+    <hyperlink ref="E321" r:id="rId314"/>
+    <hyperlink ref="E322" r:id="rId315"/>
+    <hyperlink ref="E323" r:id="rId316"/>
+    <hyperlink ref="E324" r:id="rId317"/>
+    <hyperlink ref="E325" r:id="rId318"/>
+    <hyperlink ref="E326" r:id="rId319"/>
+    <hyperlink ref="E330" r:id="rId320"/>
+    <hyperlink ref="E331" r:id="rId321"/>
+    <hyperlink ref="E332" r:id="rId322"/>
+    <hyperlink ref="E339" r:id="rId323"/>
+    <hyperlink ref="E340" r:id="rId324"/>
+    <hyperlink ref="E341" r:id="rId325"/>
+    <hyperlink ref="E342" r:id="rId326"/>
+    <hyperlink ref="E343" r:id="rId327"/>
+    <hyperlink ref="E344" r:id="rId328"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/paper_list.xlsx
+++ b/paper_list.xlsx
@@ -11234,7 +11234,7 @@
     <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F$1:F$1048576"/>
+      <selection pane="bottomLeft" activeCell="M88" sqref="M88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8359375" defaultRowHeight="16.8"/>
